--- a/k points.xlsx
+++ b/k points.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaom\Desktop\understanding_trends_in_catalytic_activity_for_hydrogen_evolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaom\Desktop\understanding_trends_in_catalytic_activity_for_hydrogen_evolution\Catalytic_Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C08E74-6D5C-45C1-896E-ADD2BB10F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3991D87C-3C02-4BCC-9328-B70230F99DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="kpoints" sheetId="3" r:id="rId2"/>
+    <sheet name="basis set" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>k points</t>
   </si>
@@ -48,40 +50,126 @@
     <t>error/eV</t>
   </si>
   <si>
-    <t>1_4layer-DZV</t>
-  </si>
-  <si>
-    <t>1_4layer-TZV</t>
-  </si>
-  <si>
-    <t>1_4layer-TZVP</t>
-  </si>
-  <si>
-    <t>monolayer-DZV</t>
-  </si>
-  <si>
-    <t>monolayer-TZV</t>
-  </si>
-  <si>
-    <t>monolayer-TZVP</t>
-  </si>
-  <si>
-    <t>surface-DZV</t>
-  </si>
-  <si>
-    <t>surface-TZV</t>
-  </si>
-  <si>
-    <t>surface-TZVP</t>
-  </si>
-  <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>1_4layer-551</t>
+  </si>
+  <si>
+    <t>1_4layer-661</t>
+  </si>
+  <si>
+    <t>1_4layer-771</t>
+  </si>
+  <si>
+    <t>monolayer-441</t>
+  </si>
+  <si>
+    <t>monolayer-551</t>
+  </si>
+  <si>
+    <t>monolayer-661</t>
+  </si>
+  <si>
+    <t>monolayer-771</t>
+  </si>
+  <si>
+    <t>Total Energy/a.u.</t>
+  </si>
+  <si>
+    <t>H Chemisorption Energy/a.u.</t>
+  </si>
+  <si>
+    <t>Error/a.u.</t>
+  </si>
+  <si>
+    <t>1/4 layer-441</t>
+  </si>
+  <si>
+    <t>Metal/Metal-H</t>
+  </si>
+  <si>
+    <t>Number of electrons</t>
+  </si>
+  <si>
+    <t>Number of occupied orbitals</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Ag-H</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Mo-H</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Pt-H</t>
+  </si>
+  <si>
+    <t>Starting opt SCF</t>
+  </si>
+  <si>
+    <t>Opt step 1 SCF</t>
+  </si>
+  <si>
+    <t>Evaluate Min E SCF</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ag/Ag-H</t>
+  </si>
+  <si>
+    <t>Au/Au-H</t>
+  </si>
+  <si>
+    <t>Mo/Mo-H</t>
+  </si>
+  <si>
+    <t>Pt/Pt-H</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Equilibrium Lattice Vector (Å)</t>
+  </si>
+  <si>
+    <t>Bulk Modulus (Mbar)</t>
+  </si>
+  <si>
+    <t>Au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,16 +195,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +575,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,100 +759,688 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A5F07-7A3B-4BE5-B162-7B7D431C4A4D}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D3A7B-EC57-4E5B-88B6-8E91691DEA6E}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1">
-        <v>-1437.6960181602401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>-1441.833034757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-1441.8359542353101</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-2.2738919999999999E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.0817388800000002E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1441.83303478485</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-2.1571670000000001E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.1880674400000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-1441.83310684495</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-2.2164639999999999E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.9509121699999996E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-1441.8322102442301</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-2.2759729999999999E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>-1442.70743783185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-1439.4955003152199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-1443.6317475288399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-1444.5033380167799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>-1437.0908730870899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="5">
+        <v>-1443.6330968278701</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-1.8198815100000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4.9553599999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>-1441.2290371050001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="5">
+        <v>-1443.63174752944</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-1.82028441</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4.5524600000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>-1442.10448763421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="5">
+        <v>-1443.6328216674799</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-1.8218794599999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2.9573999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>-1.16485202858346</v>
+      <c r="B11" s="5">
+        <v>-1443.6342873793301</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-1.8248368699999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07F8F0F-BC7D-4098-96E1-E35BC01E0AA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D8957B-9E21-4820-B41E-A9FF58581E8C}">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>704</v>
+      </c>
+      <c r="C2" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>705</v>
+      </c>
+      <c r="C3" s="5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>896</v>
+      </c>
+      <c r="C4" s="5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>897</v>
+      </c>
+      <c r="C5" s="5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1152</v>
+      </c>
+      <c r="C6" s="5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1153</v>
+      </c>
+      <c r="C7" s="5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5">
+        <v>75</v>
+      </c>
+      <c r="C17" s="5">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5">
+        <v>166</v>
+      </c>
+      <c r="C19" s="5">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="10">
+        <v>11.7687997818</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G46" s="12"/>
+      <c r="H46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="10">
+        <v>-5.8843998909000002</v>
+      </c>
+      <c r="J46" s="10">
+        <v>10.1920795831</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G47" s="13"/>
+      <c r="H47" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <v>27.206899642900002</v>
+      </c>
+    </row>
+    <row r="48" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="10">
+        <v>11.865500450100001</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G49" s="12"/>
+      <c r="H49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="10">
+        <v>5.9327502251000004</v>
+      </c>
+      <c r="J49" s="10">
+        <v>10.2758248184</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G50" s="13"/>
+      <c r="H50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>27.266099929799999</v>
+      </c>
+    </row>
+    <row r="51" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="10">
+        <v>10.9724998474</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G52" s="12"/>
+      <c r="H52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="10">
+        <v>3.6574960494000002</v>
+      </c>
+      <c r="J52" s="10">
+        <v>10.344973443700001</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G53" s="13"/>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <v>26.719299316400001</v>
+      </c>
+    </row>
+    <row r="54" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="10">
+        <v>11.200599670400001</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0</v>
+      </c>
+      <c r="K54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G55" s="12"/>
+      <c r="H55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="10">
+        <v>-5.6002998352000004</v>
+      </c>
+      <c r="J55" s="10">
+        <v>9.7000038522000001</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G56" s="13"/>
+      <c r="H56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="10">
+        <v>26.858900070200001</v>
+      </c>
+    </row>
+    <row r="57" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G57" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="10">
+        <v>11.200599670400001</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G58" s="12"/>
+      <c r="H58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="10">
+        <v>-5.6002998352000004</v>
+      </c>
+      <c r="J58" s="10">
+        <v>9.7000038522000001</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G59" s="13"/>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10">
+        <v>26.858900070200001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="5">
+        <v>4.1623000000000001</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.86850000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4.2023000000000001</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1.3005</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3.1677</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2.4472</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3.9657</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2.5116999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>